--- a/public/report/sesi_inspection.xlsx
+++ b/public/report/sesi_inspection.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
   <si>
     <t>Inspection Date</t>
   </si>
@@ -152,7 +152,7 @@
     <t>Additional notes</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-09-14 </t>
+    <t xml:space="preserve">2000-08-15 </t>
   </si>
   <si>
     <t>Yes</t>
@@ -161,7 +161,13 @@
     <t>No</t>
   </si>
   <si>
-    <t>-</t>
+    <t>2000-08-15</t>
+  </si>
+  <si>
+    <t>Apivar</t>
+  </si>
+  <si>
+    <t>note</t>
   </si>
 </sst>
 </file>
@@ -201,13 +207,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFadabab"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFadabab"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -685,103 +691,134 @@
       <c r="B2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>47</v>
+      <c r="C2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" t="s">
-        <v>47</v>
-      </c>
-      <c r="R2" t="s">
-        <v>47</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="AB2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2" s="3">
+        <v>1</v>
+      </c>
+      <c r="P2" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U2" s="3">
+        <v>1</v>
+      </c>
+      <c r="V2" s="3">
+        <v>1</v>
+      </c>
+      <c r="W2" s="3">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="s">
         <v>48</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AO2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AP2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AQ2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AR2" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
